--- a/doors-detector/results/house9_experimentk_CriterionType.MIN_0.75.xlsx
+++ b/doors-detector/results/house9_experimentk_CriterionType.MIN_0.75.xlsx
@@ -591,16 +591,16 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.6654101503946567</v>
+        <v>0.6865761931725041</v>
       </c>
       <c r="F5" t="n">
         <v>910</v>
       </c>
       <c r="G5" t="n">
-        <v>682</v>
+        <v>699</v>
       </c>
       <c r="H5" t="n">
-        <v>228</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
@@ -623,16 +623,16 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.6861447562721169</v>
+        <v>0.7023662417575063</v>
       </c>
       <c r="F6" t="n">
         <v>163</v>
       </c>
       <c r="G6" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H6" t="n">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.523894669466594</v>
+        <v>0.5028466827615058</v>
       </c>
       <c r="F7" t="n">
         <v>208</v>
@@ -664,7 +664,7 @@
         <v>155</v>
       </c>
       <c r="H7" t="n">
-        <v>288</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8">
@@ -687,16 +687,16 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.6983248196448506</v>
+        <v>0.6992294927184292</v>
       </c>
       <c r="F8" t="n">
         <v>910</v>
       </c>
       <c r="G8" t="n">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="H8" t="n">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9">
@@ -719,16 +719,16 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.7096526153763356</v>
+        <v>0.7101485836516885</v>
       </c>
       <c r="F9" t="n">
         <v>163</v>
       </c>
       <c r="G9" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H9" t="n">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
@@ -751,16 +751,16 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>0.5978778213143752</v>
+        <v>0.5944515530352833</v>
       </c>
       <c r="F10" t="n">
         <v>208</v>
       </c>
       <c r="G10" t="n">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H10" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11">
@@ -783,16 +783,16 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.687208590170001</v>
+        <v>0.6771040943029051</v>
       </c>
       <c r="F11" t="n">
         <v>910</v>
       </c>
       <c r="G11" t="n">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="H11" t="n">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
@@ -815,16 +815,16 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.7323563425052297</v>
+        <v>0.7393294912368252</v>
       </c>
       <c r="F12" t="n">
         <v>163</v>
       </c>
       <c r="G12" t="n">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H12" t="n">
-        <v>159</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
@@ -847,16 +847,16 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.6014092254183371</v>
+        <v>0.6114431827067373</v>
       </c>
       <c r="F13" t="n">
         <v>208</v>
       </c>
       <c r="G13" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H13" t="n">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14">
@@ -879,16 +879,16 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.720173164975109</v>
+        <v>0.6960650826501609</v>
       </c>
       <c r="F14" t="n">
         <v>910</v>
       </c>
       <c r="G14" t="n">
-        <v>720</v>
+        <v>703</v>
       </c>
       <c r="H14" t="n">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.6960847142405062</v>
+        <v>0.7304194881826591</v>
       </c>
       <c r="F15" t="n">
         <v>163</v>
       </c>
       <c r="G15" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="H15" t="n">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>0.6259520271886652</v>
+        <v>0.6593528462502963</v>
       </c>
       <c r="F16" t="n">
         <v>208</v>
       </c>
       <c r="G16" t="n">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="H16" t="n">
-        <v>379</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17">
@@ -975,16 +975,16 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.7236926542226897</v>
+        <v>0.7542942234011014</v>
       </c>
       <c r="F17" t="n">
         <v>910</v>
       </c>
       <c r="G17" t="n">
-        <v>724</v>
+        <v>749</v>
       </c>
       <c r="H17" t="n">
-        <v>186</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
@@ -1007,16 +1007,16 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.7593993392956143</v>
+        <v>0.7685119690140796</v>
       </c>
       <c r="F18" t="n">
         <v>163</v>
       </c>
       <c r="G18" t="n">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="H18" t="n">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>0.6039970732298764</v>
+        <v>0.6398380056419527</v>
       </c>
       <c r="F19" t="n">
         <v>208</v>
@@ -1048,7 +1048,7 @@
         <v>172</v>
       </c>
       <c r="H19" t="n">
-        <v>344</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20">
@@ -1071,16 +1071,16 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.7042615831133997</v>
+        <v>0.7136337657301862</v>
       </c>
       <c r="F20" t="n">
         <v>910</v>
       </c>
       <c r="G20" t="n">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="H20" t="n">
-        <v>206</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -1103,16 +1103,16 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.7772498573517542</v>
+        <v>0.7789535771774062</v>
       </c>
       <c r="F21" t="n">
         <v>163</v>
       </c>
       <c r="G21" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H21" t="n">
-        <v>141</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22">
@@ -1135,16 +1135,16 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.6414874723939938</v>
+        <v>0.6367498505454187</v>
       </c>
       <c r="F22" t="n">
         <v>208</v>
       </c>
       <c r="G22" t="n">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="H22" t="n">
-        <v>347</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23">
@@ -1167,16 +1167,16 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.6899344396111144</v>
+        <v>0.7151633030967931</v>
       </c>
       <c r="F23" t="n">
         <v>910</v>
       </c>
       <c r="G23" t="n">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="H23" t="n">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -1199,16 +1199,16 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7556768421614437</v>
+        <v>0.7784812247045955</v>
       </c>
       <c r="F24" t="n">
         <v>163</v>
       </c>
       <c r="G24" t="n">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H24" t="n">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25">
@@ -1231,16 +1231,16 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.6502270840472434</v>
+        <v>0.6789706121686874</v>
       </c>
       <c r="F25" t="n">
         <v>208</v>
       </c>
       <c r="G25" t="n">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="H25" t="n">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
